--- a/doc/SystemDesign.xlsx
+++ b/doc/SystemDesign.xlsx
@@ -4,25 +4,40 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Block" sheetId="1" r:id="rId1"/>
+    <sheet name="OS Flow" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>OS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -34,7 +49,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -42,23 +57,1367 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="椭圆 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="695326"/>
+          <a:ext cx="695325" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Start</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>144225</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>77475</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2028825" y="17611725"/>
+          <a:ext cx="2916000" cy="468000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>help</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>帮助文档</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>185739</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>14924</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="肘形连接符 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-6844030" y="8972869"/>
+          <a:ext cx="16902749" cy="842962"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>134700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>29850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="圆角矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2219325" y="1276350"/>
+          <a:ext cx="2916000" cy="468000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Config</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>通过配置文件，进行系统的初始化</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>96600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>125100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="圆角矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="4972050"/>
+          <a:ext cx="2916000" cy="468000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Generate Code</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>根据配置文件，进行代码生成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>96600</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>58425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="圆角矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="8677275"/>
+          <a:ext cx="2916000" cy="468000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Unit Test</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>系统各个模块的单体测试</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>48975</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>67950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="圆角矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="13144500"/>
+          <a:ext cx="2916000" cy="468000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Test Mode</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>系统调用的测试及演示</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>185738</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>138750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="形状 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1418907" y="709932"/>
+          <a:ext cx="567374" cy="1033462"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>185738</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>62550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="形状 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-447993" y="2576832"/>
+          <a:ext cx="4263074" cy="995362"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>185739</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>167324</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="形状 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-2300605" y="4429444"/>
+          <a:ext cx="7968299" cy="995362"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>5400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="形状 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-4558031" y="6686869"/>
+          <a:ext cx="12435524" cy="947737"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>168300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="圆角矩形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5429250" y="1838326"/>
+          <a:ext cx="2340000" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>①进行目录检索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>29849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="形状 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="29" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4396762" y="1024912"/>
+          <a:ext cx="313051" cy="1751925"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>168300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="圆角矩形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5429250" y="2524126"/>
+          <a:ext cx="2340000" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>②查找到以</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>cfg</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>后缀命名的文件</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>168300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="圆角矩形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5429250" y="3248026"/>
+          <a:ext cx="2340000" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>③根据配置文件内容</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>生成既定格式的模块代码</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>197656</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>48420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>199244</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>124620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直接箭头连接符 39"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="2"/>
+          <a:endCxn id="35" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6475425" y="2400301"/>
+          <a:ext cx="247650" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>197656</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>48420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>199244</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>162720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直接箭头连接符 40"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="2"/>
+          <a:endCxn id="38" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6456375" y="3105151"/>
+          <a:ext cx="285750" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>158775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="圆角矩形 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5419725" y="4038601"/>
+          <a:ext cx="2340000" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>④可以在生成后的代码中，直接运行系统，并执行系统基本机能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>188926</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>198451</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直接箭头连接符 45"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="2"/>
+          <a:endCxn id="45" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6418276" y="3857626"/>
+          <a:ext cx="352425" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>139725</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="圆角矩形 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5800725" y="14058900"/>
+          <a:ext cx="2340000" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>①进行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>linux</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>系统调用及演示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>191175</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>67949</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="肘形连接符 56"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="55" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4363425" y="12840674"/>
+          <a:ext cx="665475" cy="2209125"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -132,7 +1491,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -167,7 +1525,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -344,12 +1701,1539 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="H3:AQ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AV38" sqref="AV38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="3" spans="8:43" ht="14.25" thickBot="1"/>
+    <row r="4" spans="8:43">
+      <c r="H4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="3"/>
+    </row>
+    <row r="5" spans="8:43">
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="6"/>
+    </row>
+    <row r="6" spans="8:43">
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="6"/>
+    </row>
+    <row r="7" spans="8:43">
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="6"/>
+    </row>
+    <row r="8" spans="8:43">
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="6"/>
+    </row>
+    <row r="9" spans="8:43">
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="6"/>
+    </row>
+    <row r="10" spans="8:43">
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
+      <c r="AQ10" s="6"/>
+    </row>
+    <row r="11" spans="8:43">
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="6"/>
+    </row>
+    <row r="12" spans="8:43">
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="6"/>
+    </row>
+    <row r="13" spans="8:43">
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
+      <c r="AQ13" s="6"/>
+    </row>
+    <row r="14" spans="8:43">
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="6"/>
+    </row>
+    <row r="15" spans="8:43">
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="6"/>
+    </row>
+    <row r="16" spans="8:43">
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
+      <c r="AQ16" s="6"/>
+    </row>
+    <row r="17" spans="8:43">
+      <c r="H17" s="4"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="5"/>
+      <c r="AQ17" s="6"/>
+    </row>
+    <row r="18" spans="8:43">
+      <c r="H18" s="4"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="5"/>
+      <c r="AQ18" s="6"/>
+    </row>
+    <row r="19" spans="8:43">
+      <c r="H19" s="4"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="5"/>
+      <c r="AQ19" s="6"/>
+    </row>
+    <row r="20" spans="8:43">
+      <c r="H20" s="4"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="5"/>
+      <c r="AQ20" s="6"/>
+    </row>
+    <row r="21" spans="8:43">
+      <c r="H21" s="4"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
+      <c r="AQ21" s="6"/>
+    </row>
+    <row r="22" spans="8:43">
+      <c r="H22" s="4"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="6"/>
+    </row>
+    <row r="23" spans="8:43">
+      <c r="H23" s="4"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="6"/>
+    </row>
+    <row r="24" spans="8:43">
+      <c r="H24" s="4"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="6"/>
+    </row>
+    <row r="25" spans="8:43">
+      <c r="H25" s="4"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
+      <c r="AO25" s="5"/>
+      <c r="AP25" s="5"/>
+      <c r="AQ25" s="6"/>
+    </row>
+    <row r="26" spans="8:43">
+      <c r="H26" s="4"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
+      <c r="AO26" s="5"/>
+      <c r="AP26" s="5"/>
+      <c r="AQ26" s="6"/>
+    </row>
+    <row r="27" spans="8:43">
+      <c r="H27" s="4"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
+      <c r="AO27" s="5"/>
+      <c r="AP27" s="5"/>
+      <c r="AQ27" s="6"/>
+    </row>
+    <row r="28" spans="8:43">
+      <c r="H28" s="4"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5"/>
+      <c r="AQ28" s="6"/>
+    </row>
+    <row r="29" spans="8:43">
+      <c r="H29" s="4"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="5"/>
+      <c r="AQ29" s="6"/>
+    </row>
+    <row r="30" spans="8:43">
+      <c r="H30" s="4"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="5"/>
+      <c r="AO30" s="5"/>
+      <c r="AP30" s="5"/>
+      <c r="AQ30" s="6"/>
+    </row>
+    <row r="31" spans="8:43">
+      <c r="H31" s="4"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="5"/>
+      <c r="AN31" s="5"/>
+      <c r="AO31" s="5"/>
+      <c r="AP31" s="5"/>
+      <c r="AQ31" s="6"/>
+    </row>
+    <row r="32" spans="8:43">
+      <c r="H32" s="4"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5"/>
+      <c r="AO32" s="5"/>
+      <c r="AP32" s="5"/>
+      <c r="AQ32" s="6"/>
+    </row>
+    <row r="33" spans="8:43">
+      <c r="H33" s="4"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="5"/>
+      <c r="AQ33" s="6"/>
+    </row>
+    <row r="34" spans="8:43">
+      <c r="H34" s="4"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="5"/>
+      <c r="AQ34" s="6"/>
+    </row>
+    <row r="35" spans="8:43">
+      <c r="H35" s="4"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
+      <c r="AM35" s="5"/>
+      <c r="AN35" s="5"/>
+      <c r="AO35" s="5"/>
+      <c r="AP35" s="5"/>
+      <c r="AQ35" s="6"/>
+    </row>
+    <row r="36" spans="8:43">
+      <c r="H36" s="4"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
+      <c r="AM36" s="5"/>
+      <c r="AN36" s="5"/>
+      <c r="AO36" s="5"/>
+      <c r="AP36" s="5"/>
+      <c r="AQ36" s="6"/>
+    </row>
+    <row r="37" spans="8:43">
+      <c r="H37" s="4"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
+      <c r="AM37" s="5"/>
+      <c r="AN37" s="5"/>
+      <c r="AO37" s="5"/>
+      <c r="AP37" s="5"/>
+      <c r="AQ37" s="6"/>
+    </row>
+    <row r="38" spans="8:43">
+      <c r="H38" s="4"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+      <c r="AM38" s="5"/>
+      <c r="AN38" s="5"/>
+      <c r="AO38" s="5"/>
+      <c r="AP38" s="5"/>
+      <c r="AQ38" s="6"/>
+    </row>
+    <row r="39" spans="8:43">
+      <c r="H39" s="4"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5"/>
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="5"/>
+      <c r="AM39" s="5"/>
+      <c r="AN39" s="5"/>
+      <c r="AO39" s="5"/>
+      <c r="AP39" s="5"/>
+      <c r="AQ39" s="6"/>
+    </row>
+    <row r="40" spans="8:43">
+      <c r="H40" s="4"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="5"/>
+      <c r="AK40" s="5"/>
+      <c r="AL40" s="5"/>
+      <c r="AM40" s="5"/>
+      <c r="AN40" s="5"/>
+      <c r="AO40" s="5"/>
+      <c r="AP40" s="5"/>
+      <c r="AQ40" s="6"/>
+    </row>
+    <row r="41" spans="8:43">
+      <c r="H41" s="4"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+      <c r="AJ41" s="5"/>
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="5"/>
+      <c r="AM41" s="5"/>
+      <c r="AN41" s="5"/>
+      <c r="AO41" s="5"/>
+      <c r="AP41" s="5"/>
+      <c r="AQ41" s="6"/>
+    </row>
+    <row r="42" spans="8:43">
+      <c r="H42" s="4"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="5"/>
+      <c r="AH42" s="5"/>
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5"/>
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5"/>
+      <c r="AM42" s="5"/>
+      <c r="AN42" s="5"/>
+      <c r="AO42" s="5"/>
+      <c r="AP42" s="5"/>
+      <c r="AQ42" s="6"/>
+    </row>
+    <row r="43" spans="8:43" ht="14.25" thickBot="1">
+      <c r="H43" s="7"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8"/>
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="8"/>
+      <c r="AH43" s="8"/>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="8"/>
+      <c r="AK43" s="8"/>
+      <c r="AL43" s="8"/>
+      <c r="AM43" s="8"/>
+      <c r="AN43" s="8"/>
+      <c r="AO43" s="8"/>
+      <c r="AP43" s="8"/>
+      <c r="AQ43" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -358,22 +3242,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/SystemDesign.xlsx
+++ b/doc/SystemDesign.xlsx
@@ -4,21 +4,258 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Block" sheetId="1" r:id="rId1"/>
     <sheet name="OS Flow" sheetId="2" r:id="rId2"/>
+    <sheet name="附录_CodingRule" sheetId="3" r:id="rId3"/>
+    <sheet name="Program_Plan" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
   <si>
     <t>OS</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/**************************************</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> author:WangHaiLong</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> email:Wanhailong1118@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> version:1.0.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Function:This is the program C rule</t>
+  </si>
+  <si>
+    <t>**************************************/</t>
+  </si>
+  <si>
+    <t>/***************************************</t>
+  </si>
+  <si>
+    <t>The point variable compare with the zero</t>
+  </si>
+  <si>
+    <t>***************************************/</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>int *p = NULL;</t>
+  </si>
+  <si>
+    <t>if(NULL != p)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>/*do something*/</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>The Coding Style</t>
+  </si>
+  <si>
+    <t>void function()</t>
+  </si>
+  <si>
+    <t>if(condition) {</t>
+  </si>
+  <si>
+    <t>else {</t>
+  </si>
+  <si>
+    <t>for(XX;XX;XX) {</t>
+  </si>
+  <si>
+    <t>while(condition) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /*do something*/</t>
+  </si>
+  <si>
+    <t>do {</t>
+  </si>
+  <si>
+    <t>}while(condition)</t>
+  </si>
+  <si>
+    <t>循环语句的注意点</t>
+  </si>
+  <si>
+    <t>注释的基本要求</t>
+  </si>
+  <si>
+    <t>【规则 1】注释应当准确、易懂，防止有二义性。错误的注释不但无益反而有害。</t>
+  </si>
+  <si>
+    <t>【规则 2】边写代码边注释，修改代码同时修改相应的注释，以保证注释与代码的一致性。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 不再有用的注释要及时删除。</t>
+  </si>
+  <si>
+    <t>【规则 3】注释是对代码的“提示”，而不是文档。程序中的注释应当简单明了，注释太</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     多了会让人眼花缭乱。</t>
+  </si>
+  <si>
+    <t>【规则 4】一目了然的语句不加注释。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     例如：i++; /* i 加1 */</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 多余的注释</t>
+  </si>
+  <si>
+    <t>【规则 5】对于全局数据（全局变量、常量定义等）必须要加注释。</t>
+  </si>
+  <si>
+    <t>【规则 6】注释采用英文，尽量避免在注释中使用缩写，特别是不常用缩写。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     因为不一定所有的编译器都能显示中文，别人打开你的代码，你的注释也许是一团乱</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 码。还有，你的代码不一定是懂中文的人阅读。</t>
+  </si>
+  <si>
+    <t>【规则7】注释的位置应与被描述的代码相邻，可以与语句在同一行，也可以在上行，但</t>
+  </si>
+  <si>
+    <t>不可放在下方。同一结构中不同域的注释要对齐。</t>
+  </si>
+  <si>
+    <t>【规则 8】当代码比较长，特别是有多重嵌套时，应当在一些段落的结束处加注释，便于阅读。</t>
+  </si>
+  <si>
+    <t>【规则 9】注释的缩进要与代码的缩进一致。</t>
+  </si>
+  <si>
+    <t>【规则 10】注释代码段时应注重“为何做（why）”，而不是“怎么做（how）”。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      说明怎么做的注释一般停留在编程语言的层次，而不是为了说明问题。尽力阐述“怎么做”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  的注释一般没有告诉我们操作的意图，而指明“怎么做”的注释通常是冗余的。</t>
+  </si>
+  <si>
+    <t>【规则 11】数值的单位一定要注释。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      注释应该说明某数值的单位到底是什么意思。比如：关于长度的必须说明单位是毫米，</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  米，还是千米等；关于时间的必须说明单位是时，分，秒，还是毫秒等。</t>
+  </si>
+  <si>
+    <t>【规则 12】对变量的范围给出注释。</t>
+  </si>
+  <si>
+    <t>【规则 13】对一系列的数字编号给出注释，尤其在编写底层驱动程序的时候（比如管脚编号）。</t>
+  </si>
+  <si>
+    <t>【规则 13】对于函数的入口出口数据给出注释。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> company:iAuto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/********************************</t>
+  </si>
+  <si>
+    <t>*     need to develop</t>
+  </si>
+  <si>
+    <t>********************************/</t>
+  </si>
+  <si>
+    <t>1.add Module register progress</t>
+  </si>
+  <si>
+    <t>2.add Timer manager system</t>
+  </si>
+  <si>
+    <t>-&gt;first release done</t>
+  </si>
+  <si>
+    <t>need to modify</t>
+  </si>
+  <si>
+    <t>3.add filesystem manager system into os</t>
+  </si>
+  <si>
+    <t>-&gt;add file interface into core</t>
+  </si>
+  <si>
+    <t>4.add os Manager module</t>
+  </si>
+  <si>
+    <t>5.Timer bugs modify and test</t>
+  </si>
+  <si>
+    <t>6.add config file analysis module</t>
+  </si>
+  <si>
+    <t>-------------------------</t>
+  </si>
+  <si>
+    <t>-&gt;need to add a config manager module</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the reason of config manager is for generate module</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>-&gt;need to make a rule to analysis</t>
+  </si>
+  <si>
+    <t>-&gt;</t>
+  </si>
+  <si>
+    <t>--------------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.add memory manager into os </t>
+  </si>
+  <si>
+    <t>8.param system</t>
+  </si>
+  <si>
+    <t>-&gt;add help</t>
+  </si>
+  <si>
+    <t>-&gt;add config file check</t>
+  </si>
+  <si>
+    <t>9.add make install function</t>
+  </si>
+  <si>
+    <t>10.add generate code module by config files</t>
+  </si>
+  <si>
+    <t>11.add log module</t>
   </si>
 </sst>
 </file>
@@ -3242,7 +3479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
@@ -3253,4 +3490,555 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C91"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="C69" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="B71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="B73" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="C74" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="B77" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="C78" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="C80" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="B84" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="C85" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="B87" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="C88" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A55"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/SystemDesign.xlsx
+++ b/doc/SystemDesign.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Block" sheetId="1" r:id="rId1"/>
     <sheet name="OS Flow" sheetId="2" r:id="rId2"/>
     <sheet name="附录_CodingRule" sheetId="3" r:id="rId3"/>
-    <sheet name="Program_Plan" sheetId="4" r:id="rId4"/>
+    <sheet name="附录_Program_Plan" sheetId="4" r:id="rId4"/>
+    <sheet name="附录_DesignRule" sheetId="5" r:id="rId5"/>
+    <sheet name="Analysis Module Design" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
   <si>
     <t>OS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,13 +258,48 @@
   </si>
   <si>
     <t>11.add log module</t>
+  </si>
+  <si>
+    <t>模块化设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★</t>
+  </si>
+  <si>
+    <t>Block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File Operation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Config Analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Format Managent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,16 +314,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -374,11 +432,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -389,6 +527,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -402,16 +579,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -420,7 +597,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="695326"/>
+          <a:off x="8220075" y="219076"/>
           <a:ext cx="695325" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -458,16 +635,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>144225</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>77475</xdr:rowOff>
+      <xdr:col>112</xdr:col>
+      <xdr:colOff>106125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>29850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -476,7 +653,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2028825" y="17611725"/>
+          <a:off x="19592925" y="1276350"/>
           <a:ext cx="2916000" cy="468000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -529,32 +706,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>185739</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>14924</xdr:rowOff>
+      <xdr:col>105</xdr:col>
+      <xdr:colOff>48299</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="5" name="肘形连接符 4"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="4"/>
-          <a:endCxn id="3" idx="1"/>
+          <a:endCxn id="3" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="-6844030" y="8972869"/>
-          <a:ext cx="16902749" cy="842962"/>
+          <a:off x="14404519" y="-5370056"/>
+          <a:ext cx="809624" cy="12483187"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
@@ -583,16 +762,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>134700</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>48975</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>29850</xdr:rowOff>
+      <xdr:rowOff>58425</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -601,7 +780,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2219325" y="1276350"/>
+          <a:off x="733425" y="1304925"/>
           <a:ext cx="2916000" cy="468000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -654,16 +833,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>96600</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>125100</xdr:rowOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>134700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>39375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -672,7 +851,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2181225" y="4972050"/>
+          <a:off x="9220200" y="1285875"/>
           <a:ext cx="2916000" cy="468000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -725,16 +904,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>96600</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>58425</xdr:rowOff>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>10875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>67950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -743,7 +922,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2181225" y="8677275"/>
+          <a:off x="12496800" y="1314450"/>
           <a:ext cx="2916000" cy="468000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -796,16 +975,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>48975</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>67950</xdr:rowOff>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>115650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>48900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -814,7 +993,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2133600" y="13144500"/>
+          <a:off x="16002000" y="1295400"/>
           <a:ext cx="2916000" cy="468000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -867,32 +1046,202 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>185738</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>191176</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>138750</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>166689</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="14" name="形状 13"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="4"/>
-          <a:endCxn id="8" idx="1"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4960483" y="-2302331"/>
+          <a:ext cx="838199" cy="6376313"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>166689</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>76876</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="形状 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="9" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1418907" y="709932"/>
-          <a:ext cx="567374" cy="1033462"/>
+          <a:off x="9213395" y="-178931"/>
+          <a:ext cx="819149" cy="2110462"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>153075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="形状 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10837407" y="-1802943"/>
+          <a:ext cx="847724" cy="5387062"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>57825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="形状 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="12599532" y="-3565068"/>
+          <a:ext cx="828674" cy="8892262"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
@@ -922,31 +1271,88 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>185738</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>158775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="圆角矩形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019175" y="2581276"/>
+          <a:ext cx="2340000" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>①进行目录检索，通过客户想查找的文件后缀名称进行文件查找</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>188926</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>58424</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>62550</xdr:rowOff>
+      <xdr:colOff>191176</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="形状 14"/>
+        <xdr:cNvPr id="31" name="形状 30"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="4"/>
-          <a:endCxn id="9" idx="1"/>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="29" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="-447993" y="2576832"/>
-          <a:ext cx="4263074" cy="995362"/>
+        <a:xfrm rot="5400000">
+          <a:off x="1786125" y="2175975"/>
+          <a:ext cx="808351" cy="2250"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
@@ -976,232 +1382,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>185739</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>180976</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>167324</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="形状 15"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="4"/>
-          <a:endCxn id="10" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="-2300605" y="4429444"/>
-          <a:ext cx="7968299" cy="995362"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>185737</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="形状 16"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="4"/>
-          <a:endCxn id="11" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="-4558031" y="6686869"/>
-          <a:ext cx="12435524" cy="947737"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>149250</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>168300</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="圆角矩形 28"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5429250" y="1838326"/>
-          <a:ext cx="2340000" cy="438150"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>①进行目录检索</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>76875</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>29849</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="形状 30"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
-          <a:endCxn id="29" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4396762" y="1024912"/>
-          <a:ext cx="313051" cy="1751925"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>168300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1210,7 +1399,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5429250" y="2524126"/>
+          <a:off x="1009650" y="3457576"/>
           <a:ext cx="2340000" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1255,79 +1444,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>179400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>168300</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="圆角矩形 37"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5429250" y="3248026"/>
-          <a:ext cx="2340000" cy="438150"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>③根据配置文件内容</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>生成既定格式的模块代码</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>197656</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>48420</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>199244</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>124620</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>188925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1339,8 +1465,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="6475425" y="2400301"/>
-          <a:ext cx="247650" cy="1588"/>
+          <a:off x="1965338" y="3233739"/>
+          <a:ext cx="438150" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1372,29 +1498,219 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>197656</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>48420</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>199244</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>10875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>77475</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="圆角矩形 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4895850" y="1323975"/>
+          <a:ext cx="2916000" cy="468000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Analysis</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>解析模块，提供文件相关服务</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>153076</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>166689</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="直接箭头连接符 40"/>
+        <xdr:cNvPr id="65" name="肘形连接符 64"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="35" idx="2"/>
-          <a:endCxn id="38" idx="0"/>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="63" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="6456375" y="3105151"/>
-          <a:ext cx="285750" cy="1588"/>
+          <a:off x="7032170" y="-211594"/>
+          <a:ext cx="857249" cy="2213888"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="圆角矩形 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866775" y="4229100"/>
+          <a:ext cx="2590800" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>③解析文件是否符合</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Config</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>相关格式</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123827</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>179400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直接箭头连接符 69"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="2"/>
+          <a:endCxn id="68" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2004226" y="4053676"/>
+          <a:ext cx="333374" cy="17475"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1426,26 +1742,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>158775</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="圆角矩形 44"/>
+        <xdr:cNvPr id="75" name="圆角矩形 74"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5419725" y="4038601"/>
-          <a:ext cx="2340000" cy="438150"/>
+          <a:off x="3943350" y="5229224"/>
+          <a:ext cx="8039100" cy="4829175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1453,201 +1769,46 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:lnRef>
         <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:bodyPr rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Analysis</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(※</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>④可以在生成后的代码中，直接运行系统，并执行系统基本机能</a:t>
+            <a:t>解析模块，提供文件相关服务</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>188926</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>198451</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="直接箭头连接符 45"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="38" idx="2"/>
-          <a:endCxn id="45" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="6418276" y="3857626"/>
-          <a:ext cx="352425" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>139725</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="圆角矩形 54"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5800725" y="14058900"/>
-          <a:ext cx="2340000" cy="438150"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>①进行</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>linux</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>系统调用及演示</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>191175</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>67949</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="肘形连接符 56"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="2"/>
-          <a:endCxn id="55" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4363425" y="12840674"/>
-          <a:ext cx="665475" cy="2209125"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3479,8 +3640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="BR23" sqref="BR23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -3883,7 +4044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
@@ -4041,4 +4202,1616 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="G4:K4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AD21" sqref="AD21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="4" spans="7:11">
+      <c r="G4" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C2:AU38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AL24" sqref="AL24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="3:47" s="13" customFormat="1">
+      <c r="C2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="3:47" ht="14.25" thickBot="1"/>
+    <row r="4" spans="3:47">
+      <c r="D4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="3"/>
+    </row>
+    <row r="5" spans="3:47">
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="5"/>
+      <c r="AU5" s="6"/>
+    </row>
+    <row r="6" spans="3:47">
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="5"/>
+      <c r="AU6" s="6"/>
+    </row>
+    <row r="7" spans="3:47">
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG7" s="24"/>
+      <c r="AH7" s="24"/>
+      <c r="AI7" s="24"/>
+      <c r="AJ7" s="24"/>
+      <c r="AK7" s="24"/>
+      <c r="AL7" s="24"/>
+      <c r="AM7" s="24"/>
+      <c r="AN7" s="24"/>
+      <c r="AO7" s="24"/>
+      <c r="AP7" s="24"/>
+      <c r="AQ7" s="24"/>
+      <c r="AR7" s="24"/>
+      <c r="AS7" s="24"/>
+      <c r="AT7" s="25"/>
+      <c r="AU7" s="6"/>
+    </row>
+    <row r="8" spans="3:47">
+      <c r="D8" s="4"/>
+      <c r="E8" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="27"/>
+      <c r="AU8" s="6"/>
+    </row>
+    <row r="9" spans="3:47">
+      <c r="D9" s="4"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ9" s="15"/>
+      <c r="AR9" s="15"/>
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="27"/>
+      <c r="AU9" s="6"/>
+    </row>
+    <row r="10" spans="3:47">
+      <c r="D10" s="4"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="18"/>
+      <c r="AJ10" s="18"/>
+      <c r="AK10" s="18"/>
+      <c r="AL10" s="18"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="17"/>
+      <c r="AQ10" s="18"/>
+      <c r="AR10" s="18"/>
+      <c r="AS10" s="19"/>
+      <c r="AT10" s="27"/>
+      <c r="AU10" s="6"/>
+    </row>
+    <row r="11" spans="3:47">
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="21"/>
+      <c r="AK11" s="21"/>
+      <c r="AL11" s="21"/>
+      <c r="AM11" s="22"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="17"/>
+      <c r="AQ11" s="18"/>
+      <c r="AR11" s="18"/>
+      <c r="AS11" s="19"/>
+      <c r="AT11" s="27"/>
+      <c r="AU11" s="6"/>
+    </row>
+    <row r="12" spans="3:47">
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="17"/>
+      <c r="AQ12" s="18"/>
+      <c r="AR12" s="18"/>
+      <c r="AS12" s="19"/>
+      <c r="AT12" s="27"/>
+      <c r="AU12" s="6"/>
+    </row>
+    <row r="13" spans="3:47">
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="15"/>
+      <c r="AK13" s="15"/>
+      <c r="AL13" s="15"/>
+      <c r="AM13" s="16"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="17"/>
+      <c r="AQ13" s="18"/>
+      <c r="AR13" s="18"/>
+      <c r="AS13" s="19"/>
+      <c r="AT13" s="27"/>
+      <c r="AU13" s="6"/>
+    </row>
+    <row r="14" spans="3:47">
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="26"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="18"/>
+      <c r="AJ14" s="18"/>
+      <c r="AK14" s="18"/>
+      <c r="AL14" s="18"/>
+      <c r="AM14" s="19"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="17"/>
+      <c r="AQ14" s="18"/>
+      <c r="AR14" s="18"/>
+      <c r="AS14" s="19"/>
+      <c r="AT14" s="27"/>
+      <c r="AU14" s="6"/>
+    </row>
+    <row r="15" spans="3:47">
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="20"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="21"/>
+      <c r="AK15" s="21"/>
+      <c r="AL15" s="21"/>
+      <c r="AM15" s="22"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="17"/>
+      <c r="AQ15" s="18"/>
+      <c r="AR15" s="18"/>
+      <c r="AS15" s="19"/>
+      <c r="AT15" s="27"/>
+      <c r="AU15" s="6"/>
+    </row>
+    <row r="16" spans="3:47">
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="AF16" s="26"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="17"/>
+      <c r="AQ16" s="18"/>
+      <c r="AR16" s="18"/>
+      <c r="AS16" s="19"/>
+      <c r="AT16" s="27"/>
+      <c r="AU16" s="6"/>
+    </row>
+    <row r="17" spans="4:47">
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="17"/>
+      <c r="AQ17" s="18"/>
+      <c r="AR17" s="18"/>
+      <c r="AS17" s="19"/>
+      <c r="AT17" s="27"/>
+      <c r="AU17" s="6"/>
+    </row>
+    <row r="18" spans="4:47">
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="17"/>
+      <c r="AQ18" s="18"/>
+      <c r="AR18" s="18"/>
+      <c r="AS18" s="19"/>
+      <c r="AT18" s="27"/>
+      <c r="AU18" s="6"/>
+    </row>
+    <row r="19" spans="4:47">
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="17"/>
+      <c r="AQ19" s="18"/>
+      <c r="AR19" s="18"/>
+      <c r="AS19" s="19"/>
+      <c r="AT19" s="27"/>
+      <c r="AU19" s="6"/>
+    </row>
+    <row r="20" spans="4:47">
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="26"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="17"/>
+      <c r="AQ20" s="18"/>
+      <c r="AR20" s="18"/>
+      <c r="AS20" s="19"/>
+      <c r="AT20" s="27"/>
+      <c r="AU20" s="6"/>
+    </row>
+    <row r="21" spans="4:47">
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="26"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="17"/>
+      <c r="AQ21" s="18"/>
+      <c r="AR21" s="18"/>
+      <c r="AS21" s="19"/>
+      <c r="AT21" s="27"/>
+      <c r="AU21" s="6"/>
+    </row>
+    <row r="22" spans="4:47">
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="17"/>
+      <c r="AQ22" s="18"/>
+      <c r="AR22" s="18"/>
+      <c r="AS22" s="19"/>
+      <c r="AT22" s="27"/>
+      <c r="AU22" s="6"/>
+    </row>
+    <row r="23" spans="4:47">
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="17"/>
+      <c r="AQ23" s="18"/>
+      <c r="AR23" s="18"/>
+      <c r="AS23" s="19"/>
+      <c r="AT23" s="27"/>
+      <c r="AU23" s="6"/>
+    </row>
+    <row r="24" spans="4:47">
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="17"/>
+      <c r="AQ24" s="18"/>
+      <c r="AR24" s="18"/>
+      <c r="AS24" s="19"/>
+      <c r="AT24" s="27"/>
+      <c r="AU24" s="6"/>
+    </row>
+    <row r="25" spans="4:47">
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="26"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
+      <c r="AO25" s="5"/>
+      <c r="AP25" s="17"/>
+      <c r="AQ25" s="18"/>
+      <c r="AR25" s="18"/>
+      <c r="AS25" s="19"/>
+      <c r="AT25" s="27"/>
+      <c r="AU25" s="6"/>
+    </row>
+    <row r="26" spans="4:47">
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
+      <c r="AO26" s="5"/>
+      <c r="AP26" s="17"/>
+      <c r="AQ26" s="18"/>
+      <c r="AR26" s="18"/>
+      <c r="AS26" s="19"/>
+      <c r="AT26" s="27"/>
+      <c r="AU26" s="6"/>
+    </row>
+    <row r="27" spans="4:47">
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="26"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
+      <c r="AO27" s="5"/>
+      <c r="AP27" s="17"/>
+      <c r="AQ27" s="18"/>
+      <c r="AR27" s="18"/>
+      <c r="AS27" s="19"/>
+      <c r="AT27" s="27"/>
+      <c r="AU27" s="6"/>
+    </row>
+    <row r="28" spans="4:47">
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="26"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="17"/>
+      <c r="AQ28" s="18"/>
+      <c r="AR28" s="18"/>
+      <c r="AS28" s="19"/>
+      <c r="AT28" s="27"/>
+      <c r="AU28" s="6"/>
+    </row>
+    <row r="29" spans="4:47">
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="26"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="17"/>
+      <c r="AQ29" s="18"/>
+      <c r="AR29" s="18"/>
+      <c r="AS29" s="19"/>
+      <c r="AT29" s="27"/>
+      <c r="AU29" s="6"/>
+    </row>
+    <row r="30" spans="4:47">
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="26"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="5"/>
+      <c r="AO30" s="5"/>
+      <c r="AP30" s="17"/>
+      <c r="AQ30" s="18"/>
+      <c r="AR30" s="18"/>
+      <c r="AS30" s="19"/>
+      <c r="AT30" s="27"/>
+      <c r="AU30" s="6"/>
+    </row>
+    <row r="31" spans="4:47">
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="AF31" s="26"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="5"/>
+      <c r="AN31" s="5"/>
+      <c r="AO31" s="5"/>
+      <c r="AP31" s="17"/>
+      <c r="AQ31" s="18"/>
+      <c r="AR31" s="18"/>
+      <c r="AS31" s="19"/>
+      <c r="AT31" s="27"/>
+      <c r="AU31" s="6"/>
+    </row>
+    <row r="32" spans="4:47">
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="26"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5"/>
+      <c r="AO32" s="5"/>
+      <c r="AP32" s="17"/>
+      <c r="AQ32" s="18"/>
+      <c r="AR32" s="18"/>
+      <c r="AS32" s="19"/>
+      <c r="AT32" s="27"/>
+      <c r="AU32" s="6"/>
+    </row>
+    <row r="33" spans="4:47">
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="26"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="17"/>
+      <c r="AQ33" s="18"/>
+      <c r="AR33" s="18"/>
+      <c r="AS33" s="19"/>
+      <c r="AT33" s="27"/>
+      <c r="AU33" s="6"/>
+    </row>
+    <row r="34" spans="4:47">
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="26"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="17"/>
+      <c r="AQ34" s="18"/>
+      <c r="AR34" s="18"/>
+      <c r="AS34" s="19"/>
+      <c r="AT34" s="27"/>
+      <c r="AU34" s="6"/>
+    </row>
+    <row r="35" spans="4:47">
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="26"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
+      <c r="AM35" s="5"/>
+      <c r="AN35" s="5"/>
+      <c r="AO35" s="5"/>
+      <c r="AP35" s="20"/>
+      <c r="AQ35" s="21"/>
+      <c r="AR35" s="21"/>
+      <c r="AS35" s="22"/>
+      <c r="AT35" s="27"/>
+      <c r="AU35" s="6"/>
+    </row>
+    <row r="36" spans="4:47">
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="26"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
+      <c r="AM36" s="5"/>
+      <c r="AN36" s="5"/>
+      <c r="AO36" s="5"/>
+      <c r="AP36" s="5"/>
+      <c r="AQ36" s="5"/>
+      <c r="AR36" s="5"/>
+      <c r="AS36" s="5"/>
+      <c r="AT36" s="27"/>
+      <c r="AU36" s="6"/>
+    </row>
+    <row r="37" spans="4:47">
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="28"/>
+      <c r="AG37" s="29"/>
+      <c r="AH37" s="29"/>
+      <c r="AI37" s="29"/>
+      <c r="AJ37" s="29"/>
+      <c r="AK37" s="29"/>
+      <c r="AL37" s="29"/>
+      <c r="AM37" s="29"/>
+      <c r="AN37" s="29"/>
+      <c r="AO37" s="29"/>
+      <c r="AP37" s="29"/>
+      <c r="AQ37" s="29"/>
+      <c r="AR37" s="29"/>
+      <c r="AS37" s="29"/>
+      <c r="AT37" s="30"/>
+      <c r="AU37" s="6"/>
+    </row>
+    <row r="38" spans="4:47" ht="14.25" thickBot="1">
+      <c r="D38" s="7"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="8"/>
+      <c r="AM38" s="8"/>
+      <c r="AN38" s="8"/>
+      <c r="AO38" s="8"/>
+      <c r="AP38" s="8"/>
+      <c r="AQ38" s="8"/>
+      <c r="AR38" s="8"/>
+      <c r="AS38" s="8"/>
+      <c r="AT38" s="8"/>
+      <c r="AU38" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="AG9:AM11"/>
+    <mergeCell ref="E8:K10"/>
+    <mergeCell ref="AG13:AM15"/>
+    <mergeCell ref="AP9:AS35"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>